--- a/nilai.xlsx
+++ b/nilai.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN-04\Music\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Rizqan\Nilai\WEB\PhotoFolio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0972AF6B-A608-44EF-966B-BBEAFD49AEEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5D96605-4907-4EBC-A8A1-D9C41FA9A2B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{EB27E2FA-37C9-4E83-9FDA-1B796547467F}"/>
   </bookViews>
@@ -585,7 +585,7 @@
   <dimension ref="A1:D45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D45"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -615,7 +615,7 @@
         <v>4</v>
       </c>
       <c r="C2" s="4">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D2" s="4"/>
     </row>
@@ -627,7 +627,7 @@
         <v>5</v>
       </c>
       <c r="C3" s="4">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D3" s="4"/>
     </row>
@@ -639,7 +639,7 @@
         <v>6</v>
       </c>
       <c r="C4" s="4">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D4" s="4"/>
     </row>
@@ -651,7 +651,7 @@
         <v>7</v>
       </c>
       <c r="C5" s="4">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="D5" s="4">
         <v>89</v>
@@ -679,7 +679,7 @@
         <v>9</v>
       </c>
       <c r="C7" s="4">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D7" s="4"/>
     </row>
@@ -691,7 +691,7 @@
         <v>10</v>
       </c>
       <c r="C8" s="4">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D8" s="4">
         <v>92</v>
@@ -719,7 +719,7 @@
         <v>12</v>
       </c>
       <c r="C10" s="4">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="D10" s="4">
         <v>92</v>
@@ -733,7 +733,7 @@
         <v>13</v>
       </c>
       <c r="C11" s="4">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="D11" s="4"/>
     </row>
@@ -745,7 +745,7 @@
         <v>14</v>
       </c>
       <c r="C12" s="4">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="D12" s="4"/>
     </row>
@@ -757,7 +757,7 @@
         <v>15</v>
       </c>
       <c r="C13" s="4">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D13" s="4">
         <v>90</v>
@@ -771,9 +771,11 @@
         <v>16</v>
       </c>
       <c r="C14" s="4">
-        <v>87</v>
-      </c>
-      <c r="D14" s="4"/>
+        <v>88</v>
+      </c>
+      <c r="D14" s="4">
+        <v>89</v>
+      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
@@ -783,7 +785,7 @@
         <v>17</v>
       </c>
       <c r="C15" s="4">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D15" s="4"/>
     </row>
@@ -795,7 +797,7 @@
         <v>18</v>
       </c>
       <c r="C16" s="4">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D16" s="4"/>
     </row>
@@ -807,7 +809,7 @@
         <v>19</v>
       </c>
       <c r="C17" s="4">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D17" s="4">
         <v>95</v>
@@ -823,7 +825,9 @@
       <c r="C18" s="4">
         <v>88</v>
       </c>
-      <c r="D18" s="4"/>
+      <c r="D18" s="4">
+        <v>90</v>
+      </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
@@ -833,7 +837,7 @@
         <v>21</v>
       </c>
       <c r="C19" s="4">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D19" s="4">
         <v>93</v>
@@ -847,7 +851,7 @@
         <v>22</v>
       </c>
       <c r="C20" s="4">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D20" s="4"/>
     </row>
@@ -859,7 +863,7 @@
         <v>23</v>
       </c>
       <c r="C21" s="4">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D21" s="4">
         <v>86</v>
@@ -873,7 +877,7 @@
         <v>24</v>
       </c>
       <c r="C22" s="4">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D22" s="4">
         <v>89</v>
@@ -887,7 +891,7 @@
         <v>25</v>
       </c>
       <c r="C23" s="4">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D23" s="4">
         <v>88</v>
@@ -901,7 +905,7 @@
         <v>26</v>
       </c>
       <c r="C24" s="4">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D24" s="4"/>
     </row>
@@ -913,7 +917,7 @@
         <v>27</v>
       </c>
       <c r="C25" s="4">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D25" s="4"/>
     </row>
@@ -925,7 +929,7 @@
         <v>28</v>
       </c>
       <c r="C26" s="4">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D26" s="4"/>
     </row>
@@ -937,7 +941,7 @@
         <v>29</v>
       </c>
       <c r="C27" s="4">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D27" s="4"/>
     </row>
@@ -949,7 +953,7 @@
         <v>30</v>
       </c>
       <c r="C28" s="4">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="D28" s="4"/>
     </row>
@@ -961,7 +965,7 @@
         <v>31</v>
       </c>
       <c r="C29" s="4">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D29" s="4">
         <v>87</v>
@@ -975,7 +979,7 @@
         <v>32</v>
       </c>
       <c r="C30" s="4">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D30" s="4">
         <v>90</v>
@@ -989,7 +993,7 @@
         <v>33</v>
       </c>
       <c r="C31" s="4">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D31" s="4"/>
     </row>
@@ -1001,7 +1005,7 @@
         <v>34</v>
       </c>
       <c r="C32" s="4">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D32" s="4"/>
     </row>
@@ -1013,7 +1017,7 @@
         <v>35</v>
       </c>
       <c r="C33" s="4">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D33" s="4"/>
     </row>
@@ -1025,7 +1029,7 @@
         <v>36</v>
       </c>
       <c r="C34" s="4">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D34" s="4">
         <v>98</v>
@@ -1039,7 +1043,7 @@
         <v>37</v>
       </c>
       <c r="C35" s="4">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="D35" s="4"/>
     </row>
@@ -1051,7 +1055,7 @@
         <v>38</v>
       </c>
       <c r="C36" s="4">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="D36" s="4"/>
     </row>
@@ -1063,7 +1067,7 @@
         <v>39</v>
       </c>
       <c r="C37" s="4">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="D37" s="4"/>
     </row>
@@ -1075,7 +1079,7 @@
         <v>40</v>
       </c>
       <c r="C38" s="4">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D38" s="4">
         <v>89</v>
@@ -1089,7 +1093,7 @@
         <v>41</v>
       </c>
       <c r="C39" s="4">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="D39" s="4">
         <v>88</v>
@@ -1103,7 +1107,7 @@
         <v>42</v>
       </c>
       <c r="C40" s="4">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D40" s="4"/>
     </row>
@@ -1115,7 +1119,7 @@
         <v>43</v>
       </c>
       <c r="C41" s="4">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D41" s="4"/>
     </row>
@@ -1127,7 +1131,7 @@
         <v>44</v>
       </c>
       <c r="C42" s="4">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D42" s="4">
         <v>97</v>
@@ -1155,7 +1159,7 @@
         <v>46</v>
       </c>
       <c r="C44" s="4">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D44" s="4">
         <v>95</v>
@@ -1169,7 +1173,7 @@
         <v>47</v>
       </c>
       <c r="C45" s="4">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D45" s="4">
         <v>91</v>

--- a/nilai.xlsx
+++ b/nilai.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Rizqan\Nilai\WEB\PhotoFolio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5D96605-4907-4EBC-A8A1-D9C41FA9A2B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1054A85A-8757-4F99-80B6-2B3A7813293C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{EB27E2FA-37C9-4E83-9FDA-1B796547467F}"/>
   </bookViews>
@@ -584,8 +584,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96726B80-7617-4271-AAD0-3AE15B8D7A97}">
   <dimension ref="A1:D45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -641,7 +641,9 @@
       <c r="C4" s="4">
         <v>90</v>
       </c>
-      <c r="D4" s="4"/>
+      <c r="D4" s="4">
+        <v>98</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
@@ -943,7 +945,9 @@
       <c r="C27" s="4">
         <v>88</v>
       </c>
-      <c r="D27" s="4"/>
+      <c r="D27" s="4">
+        <v>89</v>
+      </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
@@ -1109,7 +1113,9 @@
       <c r="C40" s="4">
         <v>90</v>
       </c>
-      <c r="D40" s="4"/>
+      <c r="D40" s="4">
+        <v>89</v>
+      </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="2">

--- a/nilai.xlsx
+++ b/nilai.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Rizqan\Nilai\WEB\PhotoFolio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1054A85A-8757-4F99-80B6-2B3A7813293C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C30B7C0-A37C-4C92-B871-8C1E08BAD41F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{EB27E2FA-37C9-4E83-9FDA-1B796547467F}"/>
   </bookViews>
@@ -585,7 +585,7 @@
   <dimension ref="A1:D45"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="C42" sqref="C42"/>
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1011,7 +1011,9 @@
       <c r="C32" s="4">
         <v>93</v>
       </c>
-      <c r="D32" s="4"/>
+      <c r="D32" s="4">
+        <v>96</v>
+      </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="2">

--- a/nilai.xlsx
+++ b/nilai.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Rizqan\Nilai\WEB\PhotoFolio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C30B7C0-A37C-4C92-B871-8C1E08BAD41F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B3AA03B-5C78-4958-8350-139D81942590}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{EB27E2FA-37C9-4E83-9FDA-1B796547467F}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <si>
     <t>No</t>
   </si>
@@ -169,6 +169,9 @@
   </si>
   <si>
     <t>Tesaoma Firnanda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
   </si>
 </sst>
 </file>
@@ -254,9 +257,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -266,6 +266,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -582,10 +585,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96726B80-7617-4271-AAD0-3AE15B8D7A97}">
-  <dimension ref="A1:D45"/>
+  <dimension ref="A1:F45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -608,586 +611,601 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
+      <c r="A2" s="6">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="3">
         <v>86</v>
       </c>
-      <c r="D2" s="4"/>
+      <c r="D2" s="3"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
+      <c r="A3" s="6">
         <v>2</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="3">
         <v>87</v>
       </c>
-      <c r="D3" s="4"/>
+      <c r="D3" s="3"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
+      <c r="A4" s="6">
         <v>3</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="3">
         <v>90</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="3">
         <v>98</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
+      <c r="A5" s="6">
         <v>4</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="3">
         <v>88</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="3">
         <v>89</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
+      <c r="A6" s="6">
         <v>5</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="3">
         <v>87</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="3">
         <v>92</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
+      <c r="A7" s="6">
         <v>6</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="3">
         <v>87</v>
       </c>
-      <c r="D7" s="4"/>
+      <c r="D7" s="3">
+        <v>90</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
+      <c r="A8" s="6">
         <v>7</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="3">
         <v>89</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="3">
         <v>92</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
+      <c r="A9" s="6">
         <v>8</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="3">
         <v>92</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="3">
         <v>97</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
+      <c r="A10" s="6">
         <v>10</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="3">
         <v>93</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="3">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="6">
+        <v>11</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="3">
         <v>92</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
-        <v>1</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" s="4">
+      <c r="D11" s="3"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="6">
+        <v>11.5111111111111</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="3">
+        <v>86</v>
+      </c>
+      <c r="D12" s="3"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="6">
+        <v>12.577777777777699</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="3">
+        <v>87</v>
+      </c>
+      <c r="D13" s="3">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="6">
+        <v>13.6444444444444</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="3">
+        <v>88</v>
+      </c>
+      <c r="D14" s="3">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="6">
+        <v>14.7111111111111</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="3">
+        <v>84</v>
+      </c>
+      <c r="D15" s="3"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="6">
+        <v>15.7777777777777</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" s="3">
+        <v>88</v>
+      </c>
+      <c r="D16" s="3"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="6">
+        <v>16.844444444444399</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" s="3">
+        <v>86</v>
+      </c>
+      <c r="D17" s="3">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="6">
+        <v>17.911111111111101</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" s="3">
+        <v>88</v>
+      </c>
+      <c r="D18" s="3">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="6">
+        <v>18.9777777777777</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" s="3">
+        <v>89</v>
+      </c>
+      <c r="D19" s="3">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="6">
+        <v>20.044444444444402</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" s="3">
+        <v>88</v>
+      </c>
+      <c r="D20" s="3">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="6">
+        <v>21.1111111111111</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21" s="3">
         <v>92</v>
       </c>
-      <c r="D11" s="4"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
-        <v>2</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" s="4">
+      <c r="D21" s="3">
+        <v>93</v>
+      </c>
+      <c r="F21" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="6">
+        <v>22.177777777777699</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" s="3">
+        <v>88</v>
+      </c>
+      <c r="D22" s="3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="6">
+        <v>23.244444444444401</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" s="3">
+        <v>90</v>
+      </c>
+      <c r="D23" s="3">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="6">
+        <v>24.311111111111099</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" s="3">
+        <v>85</v>
+      </c>
+      <c r="D24" s="3"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="6">
+        <v>25.377777777777698</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C25" s="3">
+        <v>93</v>
+      </c>
+      <c r="D25" s="3"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="6">
+        <v>26.4444444444444</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C26" s="3">
+        <v>87</v>
+      </c>
+      <c r="D26" s="3">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="6">
+        <v>27.511111111111099</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C27" s="3">
+        <v>88</v>
+      </c>
+      <c r="D27" s="3">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="6">
+        <v>28.577777777777701</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C28" s="3">
+        <v>88</v>
+      </c>
+      <c r="D28" s="3"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="6">
+        <v>29.6444444444444</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C29" s="3">
         <v>86</v>
       </c>
-      <c r="D12" s="4"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
-        <v>3</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" s="4">
+      <c r="D29" s="3">
         <v>87</v>
       </c>
-      <c r="D13" s="4">
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="6">
+        <v>30.711111111111101</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C30" s="3">
+        <v>89</v>
+      </c>
+      <c r="D30" s="3">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="6">
+        <v>31.7777777777777</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C31" s="3">
+        <v>87</v>
+      </c>
+      <c r="D31" s="3"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="6">
+        <v>32.844444444444399</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C32" s="3">
+        <v>93</v>
+      </c>
+      <c r="D32" s="3">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="6">
+        <v>33.911111111111097</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C33" s="3">
+        <v>87</v>
+      </c>
+      <c r="D33" s="3"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="6">
+        <v>34.977777777777703</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C34" s="3">
+        <v>92</v>
+      </c>
+      <c r="D34" s="3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="6">
+        <v>36.044444444444501</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C35" s="3">
+        <v>92</v>
+      </c>
+      <c r="D35" s="3">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="6">
+        <v>37.1111111111111</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C36" s="3">
+        <v>87</v>
+      </c>
+      <c r="D36" s="3"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="6">
+        <v>38.177777777777699</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C37" s="3">
+        <v>89</v>
+      </c>
+      <c r="D37" s="3"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="6">
+        <v>39.244444444444397</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C38" s="3">
+        <v>88</v>
+      </c>
+      <c r="D38" s="3">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="6">
+        <v>40.311111111111103</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C39" s="3">
+        <v>86</v>
+      </c>
+      <c r="D39" s="3">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="6">
+        <v>41.377777777777801</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C40" s="3">
         <v>90</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
-        <v>5</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" s="4">
+      <c r="D40" s="3">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="6">
+        <v>42.4444444444444</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C41" s="3">
+        <v>89</v>
+      </c>
+      <c r="D41" s="3"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="6">
+        <v>43.511111111111099</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C42" s="3">
         <v>88</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D42" s="3">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="6">
+        <v>44.577777777777698</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C43" s="3">
+        <v>87</v>
+      </c>
+      <c r="D43" s="3">
         <v>89</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="2">
-        <v>6</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C15" s="4">
-        <v>84</v>
-      </c>
-      <c r="D15" s="4"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
-        <v>7</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C16" s="4">
-        <v>88</v>
-      </c>
-      <c r="D16" s="4"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="2">
-        <v>8</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C17" s="4">
-        <v>86</v>
-      </c>
-      <c r="D17" s="4">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="6">
+        <v>45.644444444444403</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C44" s="3">
+        <v>89</v>
+      </c>
+      <c r="D44" s="3">
         <v>95</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="2">
-        <v>9</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C18" s="4">
-        <v>88</v>
-      </c>
-      <c r="D18" s="4">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="6">
+        <v>46.711111111111201</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C45" s="3">
         <v>90</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="2">
-        <v>10</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C19" s="4">
-        <v>89</v>
-      </c>
-      <c r="D19" s="4">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="2">
-        <v>11</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C20" s="4">
-        <v>88</v>
-      </c>
-      <c r="D20" s="4"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="2">
-        <v>12</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C21" s="4">
-        <v>92</v>
-      </c>
-      <c r="D21" s="4">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="2">
-        <v>13</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C22" s="4">
-        <v>88</v>
-      </c>
-      <c r="D22" s="4">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="2">
-        <v>1</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C23" s="4">
-        <v>90</v>
-      </c>
-      <c r="D23" s="4">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="2">
-        <v>2</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C24" s="4">
-        <v>85</v>
-      </c>
-      <c r="D24" s="4"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="2">
-        <v>3</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C25" s="4">
-        <v>93</v>
-      </c>
-      <c r="D25" s="4"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="2">
-        <v>4</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C26" s="4">
-        <v>87</v>
-      </c>
-      <c r="D26" s="4"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="2">
-        <v>5</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C27" s="4">
-        <v>88</v>
-      </c>
-      <c r="D27" s="4">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="2">
-        <v>6</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C28" s="4">
-        <v>88</v>
-      </c>
-      <c r="D28" s="4"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="2">
-        <v>7</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C29" s="4">
-        <v>86</v>
-      </c>
-      <c r="D29" s="4">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="2">
-        <v>8</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C30" s="4">
-        <v>89</v>
-      </c>
-      <c r="D30" s="4">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="2">
-        <v>9</v>
-      </c>
-      <c r="B31" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C31" s="4">
-        <v>87</v>
-      </c>
-      <c r="D31" s="4"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="2">
-        <v>10</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C32" s="4">
-        <v>93</v>
-      </c>
-      <c r="D32" s="4">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="2">
-        <v>1</v>
-      </c>
-      <c r="B33" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C33" s="4">
-        <v>87</v>
-      </c>
-      <c r="D33" s="4"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="2">
-        <v>2</v>
-      </c>
-      <c r="B34" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C34" s="4">
-        <v>92</v>
-      </c>
-      <c r="D34" s="4">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="2">
-        <v>3</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C35" s="4">
-        <v>92</v>
-      </c>
-      <c r="D35" s="4"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="2">
-        <v>4</v>
-      </c>
-      <c r="B36" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C36" s="4">
-        <v>87</v>
-      </c>
-      <c r="D36" s="4"/>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="2">
-        <v>5</v>
-      </c>
-      <c r="B37" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="C37" s="4">
-        <v>89</v>
-      </c>
-      <c r="D37" s="4"/>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="2">
-        <v>6</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C38" s="4">
-        <v>88</v>
-      </c>
-      <c r="D38" s="4">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="2">
-        <v>7</v>
-      </c>
-      <c r="B39" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="C39" s="4">
-        <v>86</v>
-      </c>
-      <c r="D39" s="4">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="2">
-        <v>8</v>
-      </c>
-      <c r="B40" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C40" s="4">
-        <v>90</v>
-      </c>
-      <c r="D40" s="4">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="2">
-        <v>9</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C41" s="4">
-        <v>89</v>
-      </c>
-      <c r="D41" s="4"/>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="2">
-        <v>10</v>
-      </c>
-      <c r="B42" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="C42" s="4">
-        <v>88</v>
-      </c>
-      <c r="D42" s="4">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="2">
-        <v>11</v>
-      </c>
-      <c r="B43" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="C43" s="4">
-        <v>87</v>
-      </c>
-      <c r="D43" s="4">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="2">
-        <v>12</v>
-      </c>
-      <c r="B44" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="C44" s="4">
-        <v>89</v>
-      </c>
-      <c r="D44" s="4">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="2">
-        <v>13</v>
-      </c>
-      <c r="B45" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="C45" s="4">
-        <v>90</v>
-      </c>
-      <c r="D45" s="4">
+      <c r="D45" s="3">
         <v>91</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:D45">
+    <sortCondition ref="B2:B45"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/nilai.xlsx
+++ b/nilai.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Rizqan\Nilai\WEB\PhotoFolio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B3AA03B-5C78-4958-8350-139D81942590}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C88B20F-28C3-44AE-A1C8-556D08FE3774}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{EB27E2FA-37C9-4E83-9FDA-1B796547467F}"/>
   </bookViews>
@@ -587,8 +587,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96726B80-7617-4271-AAD0-3AE15B8D7A97}">
   <dimension ref="A1:F45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -632,7 +632,9 @@
       <c r="C3" s="3">
         <v>87</v>
       </c>
-      <c r="D3" s="3"/>
+      <c r="D3" s="3">
+        <v>99</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
@@ -742,7 +744,9 @@
       <c r="C11" s="3">
         <v>92</v>
       </c>
-      <c r="D11" s="3"/>
+      <c r="D11" s="3">
+        <v>89</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
@@ -892,7 +896,7 @@
         <v>88</v>
       </c>
       <c r="D22" s="3">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -1011,7 +1015,9 @@
       <c r="C31" s="3">
         <v>87</v>
       </c>
-      <c r="D31" s="3"/>
+      <c r="D31" s="3">
+        <v>90</v>
+      </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="6">
@@ -1077,7 +1083,9 @@
       <c r="C36" s="3">
         <v>87</v>
       </c>
-      <c r="D36" s="3"/>
+      <c r="D36" s="3">
+        <v>89</v>
+      </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="6">
